--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value7.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value7.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.095287610810736</v>
+        <v>3.077022314071655</v>
       </c>
       <c r="B1">
-        <v>2.530922763978169</v>
+        <v>6.279294967651367</v>
       </c>
       <c r="C1">
-        <v>2.598099192603617</v>
+        <v>6.324397563934326</v>
       </c>
       <c r="D1">
-        <v>0.6824643297782514</v>
+        <v>6.721923828125</v>
       </c>
       <c r="E1">
-        <v>0.5354665872299583</v>
+        <v>5.208512306213379</v>
       </c>
     </row>
   </sheetData>
